--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value710.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value710.xlsx
@@ -354,7 +354,7 @@
         <v>2.303035807155058</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.641845885879403</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value710.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value710.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.385171849955117</v>
+        <v>1.329722881317139</v>
       </c>
       <c r="B1">
-        <v>2.303035807155058</v>
+        <v>2.632085561752319</v>
       </c>
       <c r="C1">
         <v>15</v>
       </c>
       <c r="D1">
-        <v>1.641845885879403</v>
+        <v>1.57459557056427</v>
       </c>
       <c r="E1">
-        <v>0.8260997683833323</v>
+        <v>0.9392154216766357</v>
       </c>
     </row>
   </sheetData>
